--- a/lab4/3/alldata.xlsx
+++ b/lab4/3/alldata.xlsx
@@ -171,7 +171,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10898477312977388"/>
+          <c:y val="0.1069943362342865"/>
+          <c:w val="0.8741958198621399"/>
+          <c:h val="0.80885352488833628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7703,11 +7713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48240832"/>
-        <c:axId val="518776512"/>
+        <c:axId val="48237376"/>
+        <c:axId val="48237952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48240832"/>
+        <c:axId val="48237376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7747,12 +7757,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518776512"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="48237952"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518776512"/>
+        <c:axId val="48237952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7776,7 +7786,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.32136832895888018"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7793,8 +7810,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48240832"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="48237376"/>
+        <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -7804,8 +7821,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2233143619318981E-2"/>
-          <c:y val="0.59755214808675228"/>
+          <c:x val="0.79017868049512674"/>
+          <c:y val="0.52269834691716177"/>
           <c:w val="0.19832829366011637"/>
           <c:h val="0.35557397430584337"/>
         </c:manualLayout>
@@ -15296,11 +15313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="621425152"/>
-        <c:axId val="621424576"/>
+        <c:axId val="48241408"/>
+        <c:axId val="48235072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="621425152"/>
+        <c:axId val="48241408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15310,12 +15327,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="621424576"/>
+        <c:crossAx val="48235072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="621424576"/>
+        <c:axId val="48235072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-6.0000000000000012E-2"/>
@@ -15327,7 +15344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="621425152"/>
+        <c:crossAx val="48241408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15359,8 +15376,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
